--- a/src/data/inputData1_update.xlsx
+++ b/src/data/inputData1_update.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>CaseType</t>
   </si>
@@ -1032,9 +1032,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.8888888888889" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="37.8888888888889" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="29.8888888888889" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="25.8888888888889" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.8888888888889" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.8888888888889" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
